--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/CIBCCATxnValueForecastErrors.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/CIBCCATxnValueForecastErrors.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="171">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>x</t>
   </si>
@@ -272,259 +269,256 @@
     <t>84</t>
   </si>
   <si>
-    <t>CIBCCA</t>
-  </si>
-  <si>
-    <t>21.3718392842827</t>
-  </si>
-  <si>
-    <t>-9.45446267802828</t>
-  </si>
-  <si>
-    <t>-8.6668271781034</t>
-  </si>
-  <si>
-    <t>15.7143076339309</t>
-  </si>
-  <si>
-    <t>-8.25964326426259</t>
-  </si>
-  <si>
-    <t>-1.91007639666896</t>
-  </si>
-  <si>
-    <t>-6.37352267407186</t>
-  </si>
-  <si>
-    <t>-1.1471978398028</t>
-  </si>
-  <si>
-    <t>-40.4900059721506</t>
-  </si>
-  <si>
-    <t>-39.085154259738</t>
-  </si>
-  <si>
-    <t>-26.6004863188771</t>
-  </si>
-  <si>
-    <t>-5.86576737777631</t>
-  </si>
-  <si>
-    <t>12.3469749804696</t>
-  </si>
-  <si>
-    <t>-20.1331145727705</t>
-  </si>
-  <si>
-    <t>1.88569339220618</t>
-  </si>
-  <si>
-    <t>-2.15092768454332</t>
-  </si>
-  <si>
-    <t>9.21547278167566</t>
-  </si>
-  <si>
-    <t>-10.8611900151927</t>
-  </si>
-  <si>
-    <t>-6.05588675054759</t>
-  </si>
-  <si>
-    <t>-5.17353815474661</t>
-  </si>
-  <si>
-    <t>13.6049224581903</t>
-  </si>
-  <si>
-    <t>-13.8374248395315</t>
-  </si>
-  <si>
-    <t>-6.82543638758114</t>
-  </si>
-  <si>
-    <t>-7.79857875602698</t>
-  </si>
-  <si>
-    <t>14.9088925416157</t>
-  </si>
-  <si>
-    <t>12.0299711787447</t>
-  </si>
-  <si>
-    <t>-0.375165460554285</t>
-  </si>
-  <si>
-    <t>-4.45021187413295</t>
-  </si>
-  <si>
-    <t>-4.43562979537933</t>
-  </si>
-  <si>
-    <t>0.898722255186954</t>
-  </si>
-  <si>
-    <t>-1.58820314421291</t>
-  </si>
-  <si>
-    <t>-11.1162374992151</t>
-  </si>
-  <si>
-    <t>-16.4398020438543</t>
-  </si>
-  <si>
-    <t>-17.5114587640356</t>
-  </si>
-  <si>
-    <t>2.92668261443185</t>
-  </si>
-  <si>
-    <t>-8.70063478110137</t>
-  </si>
-  <si>
-    <t>3.66255683849602</t>
-  </si>
-  <si>
-    <t>-2.35837948230505</t>
-  </si>
-  <si>
-    <t>-8.86945957207297</t>
-  </si>
-  <si>
-    <t>3.48255444598647</t>
-  </si>
-  <si>
-    <t>9.19259747061386</t>
-  </si>
-  <si>
-    <t>-6.4895396632192</t>
-  </si>
-  <si>
-    <t>6.00109074092808</t>
-  </si>
-  <si>
-    <t>-5.43213385956295</t>
-  </si>
-  <si>
-    <t>8.15756601075162</t>
-  </si>
-  <si>
-    <t>-2.47875411521551</t>
-  </si>
-  <si>
-    <t>-11.2304310699348</t>
-  </si>
-  <si>
-    <t>3.80619876503806</t>
-  </si>
-  <si>
-    <t>-4.47599900539331</t>
-  </si>
-  <si>
-    <t>4.9115917495115</t>
-  </si>
-  <si>
-    <t>0.49100562032686</t>
-  </si>
-  <si>
-    <t>0.551292389663615</t>
-  </si>
-  <si>
-    <t>-1.30523290392631</t>
-  </si>
-  <si>
-    <t>1.46470609556081</t>
-  </si>
-  <si>
-    <t>1.25185303152858</t>
-  </si>
-  <si>
-    <t>-2.20291225606292</t>
-  </si>
-  <si>
-    <t>-6.86888911473721</t>
-  </si>
-  <si>
-    <t>-0.0872201876194936</t>
-  </si>
-  <si>
-    <t>8.48307655969865</t>
-  </si>
-  <si>
-    <t>2.35631973853896</t>
-  </si>
-  <si>
-    <t>-11.4731508994931</t>
-  </si>
-  <si>
-    <t>9.2151226335435</t>
-  </si>
-  <si>
-    <t>6.99068090344815</t>
-  </si>
-  <si>
-    <t>-8.93695771509022</t>
-  </si>
-  <si>
-    <t>5.56567738339396</t>
-  </si>
-  <si>
-    <t>8.6496117159561</t>
-  </si>
-  <si>
-    <t>-0.514720503682952</t>
-  </si>
-  <si>
-    <t>-0.0975819741456689</t>
-  </si>
-  <si>
-    <t>-7.31748602649083</t>
-  </si>
-  <si>
-    <t>10.5806628706893</t>
-  </si>
-  <si>
-    <t>-9.18064582115511</t>
-  </si>
-  <si>
-    <t>13.7224330753943</t>
-  </si>
-  <si>
-    <t>-24.1322969169518</t>
-  </si>
-  <si>
-    <t>11.4832259225128</t>
-  </si>
-  <si>
-    <t>7.32866484455894</t>
-  </si>
-  <si>
-    <t>-2.05393409435527</t>
-  </si>
-  <si>
-    <t>-12.1692328668572</t>
-  </si>
-  <si>
-    <t>-71.1300773898234</t>
-  </si>
-  <si>
-    <t>56.0478303618137</t>
-  </si>
-  <si>
-    <t>34.7025563978393</t>
-  </si>
-  <si>
-    <t>-6.2092732093397</t>
-  </si>
-  <si>
-    <t>30.2917949205989</t>
-  </si>
-  <si>
-    <t>-0.582946167150794</t>
-  </si>
-  <si>
-    <t>25.6926305143288</t>
+    <t>2.68479301662819</t>
+  </si>
+  <si>
+    <t>464.493122940342</t>
+  </si>
+  <si>
+    <t>-347.972625324998</t>
+  </si>
+  <si>
+    <t>109.586740578838</t>
+  </si>
+  <si>
+    <t>-285.38105886662</t>
+  </si>
+  <si>
+    <t>-31.8132723560425</t>
+  </si>
+  <si>
+    <t>238.378593216326</t>
+  </si>
+  <si>
+    <t>-219.545333743959</t>
+  </si>
+  <si>
+    <t>88.8670735823453</t>
+  </si>
+  <si>
+    <t>114.472549173308</t>
+  </si>
+  <si>
+    <t>-169.719568647946</t>
+  </si>
+  <si>
+    <t>-115.358763689452</t>
+  </si>
+  <si>
+    <t>-6.33823861135579</t>
+  </si>
+  <si>
+    <t>239.740062576557</t>
+  </si>
+  <si>
+    <t>-201.759908838313</t>
+  </si>
+  <si>
+    <t>87.065597366704</t>
+  </si>
+  <si>
+    <t>111.581927495692</t>
+  </si>
+  <si>
+    <t>-87.9585014150493</t>
+  </si>
+  <si>
+    <t>196.538511762856</t>
+  </si>
+  <si>
+    <t>-190.375360542313</t>
+  </si>
+  <si>
+    <t>422.954617785758</t>
+  </si>
+  <si>
+    <t>-304.452610874384</t>
+  </si>
+  <si>
+    <t>444.444822954072</t>
+  </si>
+  <si>
+    <t>-262.299639611436</t>
+  </si>
+  <si>
+    <t>-39.1578975068874</t>
+  </si>
+  <si>
+    <t>-85.3034542021328</t>
+  </si>
+  <si>
+    <t>405.629427508113</t>
+  </si>
+  <si>
+    <t>114.2267371252</t>
+  </si>
+  <si>
+    <t>-327.118252504915</t>
+  </si>
+  <si>
+    <t>96.5929880678723</t>
+  </si>
+  <si>
+    <t>-32.4797832786981</t>
+  </si>
+  <si>
+    <t>203.790715384863</t>
+  </si>
+  <si>
+    <t>-658.696412035091</t>
+  </si>
+  <si>
+    <t>-331.474483686378</t>
+  </si>
+  <si>
+    <t>-221.673621604325</t>
+  </si>
+  <si>
+    <t>38.546763177812</t>
+  </si>
+  <si>
+    <t>-123.01182731577</t>
+  </si>
+  <si>
+    <t>346.072384648928</t>
+  </si>
+  <si>
+    <t>-36.2220179961864</t>
+  </si>
+  <si>
+    <t>-345.655457767944</t>
+  </si>
+  <si>
+    <t>98.402531242793</t>
+  </si>
+  <si>
+    <t>-236.479296218071</t>
+  </si>
+  <si>
+    <t>-7.5542003288374</t>
+  </si>
+  <si>
+    <t>28.4621949023422</t>
+  </si>
+  <si>
+    <t>-71.548667239822</t>
+  </si>
+  <si>
+    <t>-141.822132728209</t>
+  </si>
+  <si>
+    <t>-121.756240467874</t>
+  </si>
+  <si>
+    <t>34.3656711928825</t>
+  </si>
+  <si>
+    <t>-139.732010674202</t>
+  </si>
+  <si>
+    <t>-56.6825600324851</t>
+  </si>
+  <si>
+    <t>-32.8993605348674</t>
+  </si>
+  <si>
+    <t>98.1101136008347</t>
+  </si>
+  <si>
+    <t>-171.128732958665</t>
+  </si>
+  <si>
+    <t>-194.766557306285</t>
+  </si>
+  <si>
+    <t>46.4321229445673</t>
+  </si>
+  <si>
+    <t>213.355183506306</t>
+  </si>
+  <si>
+    <t>214.665434055606</t>
+  </si>
+  <si>
+    <t>-78.6893558434699</t>
+  </si>
+  <si>
+    <t>124.849635950043</t>
+  </si>
+  <si>
+    <t>-70.1178774912441</t>
+  </si>
+  <si>
+    <t>177.901970341016</t>
+  </si>
+  <si>
+    <t>-173.288547806143</t>
+  </si>
+  <si>
+    <t>-320.302673617244</t>
+  </si>
+  <si>
+    <t>93.9037496343271</t>
+  </si>
+  <si>
+    <t>-96.1356063899748</t>
+  </si>
+  <si>
+    <t>-35.0681523861458</t>
+  </si>
+  <si>
+    <t>-155.075143492427</t>
+  </si>
+  <si>
+    <t>-8.9938303301974</t>
+  </si>
+  <si>
+    <t>124.308296135599</t>
+  </si>
+  <si>
+    <t>242.932673250229</t>
+  </si>
+  <si>
+    <t>-127.840562032274</t>
+  </si>
+  <si>
+    <t>121.725135058446</t>
+  </si>
+  <si>
+    <t>-137.6767042249</t>
+  </si>
+  <si>
+    <t>109.980198336573</t>
+  </si>
+  <si>
+    <t>-326.021293660398</t>
+  </si>
+  <si>
+    <t>214.088467706611</t>
+  </si>
+  <si>
+    <t>113.086387248402</t>
+  </si>
+  <si>
+    <t>1567.85958105673</t>
+  </si>
+  <si>
+    <t>748.746032863722</t>
+  </si>
+  <si>
+    <t>2.79441585375389</t>
+  </si>
+  <si>
+    <t>78.4922135668785</t>
+  </si>
+  <si>
+    <t>-1271.34732751696</t>
+  </si>
+  <si>
+    <t>297.791780299689</t>
+  </si>
+  <si>
+    <t>-144.310564216535</t>
   </si>
 </sst>
 </file>
@@ -580,932 +574,677 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
